--- a/outputs/MSN20251111032/MSN20251111032银行流水1_audit_report.xlsx
+++ b/outputs/MSN20251111032/MSN20251111032银行流水1_audit_report.xlsx
@@ -488,7 +488,7 @@
     <row r="2" ht="20" customHeight="1">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>生成时间: 2026-01-31 10:02:19</t>
+          <t>生成时间: 2026-02-01 20:21:26</t>
         </is>
       </c>
     </row>
@@ -680,34 +680,29 @@
       </c>
       <c r="E20" s="5" t="inlineStr">
         <is>
-          <t>【执行步骤说明】
-严格按照规则MSTAR_BBVA_DTL_CNT_ABONOS的判断逻辑执行：
-(Step 1) 从'Comportamiento'表格中提取'Depósitos / Abonos (+)'对应的总笔数（Total Movimientos Abonos）。
-执行结果：在提供的'Comportamiento'和'total_movimientos'数据中，均明确显示'total_movimientos_abonos: 1'。因此，数值1 = 1。
-(Step 2) 遍历'Detalle de Movimientos Realizados'部分的所有交易行。
-执行结果：明细部分共有2笔交易。
-(Step 3) [关键过滤] 仅统计'Abonos'列有有效数值（非空且不为0）的行。如果某行只有'Cargo'列有值，必须忽略。
-执行结果：
-第1笔交易：Abonos: 52373.57 (有效数值) -&gt; 计入统计。
-第2笔交易：Abonos: 无 (无有效数值) -&gt; 忽略。
+          <t>规则ID: MSTAR_BBVA_DTL_CNT_ABONOS
+规则名称: 明细交易笔数校验_入账笔数
+执行步骤与结果：
+(Step 1) 从 'Comportamiento' 表格中提取 'Depósitos / Abonos (+)'（入账）对应的总笔数（Total Movimientos Abonos）。
+- 执行结果：在提供的 'Comportamiento' 部分，明确记录 'Depósitos / Abonos (+): 1  52,373.57'。因此，数值1（来自Comportamiento）为 1 笔。
+(Step 2) 遍历 'Detalle de Movimientos Realizados'或raw_transaction_data（交易明细）部分的所有交易行。
+- 执行结果：明细部分共列出 2 笔交易。
+(Step 3) [关键过滤] 仅统计 'Abonos' 列有有效数值（非空且不为0）的行。如果某行只有 'Cargo' 列有值，必须忽略。
+- 执行结果：逐行检查明细：
+  1. 第一笔：ABONOS:52373.57 (有效)，CARGOS:无。符合条件，计入。
+  2. 第二笔：ABONOS:无，CARGOS:52400.0。不符合条件（Abonos列无值），忽略。
 (Step 4) 计算符合条件的交易总行数。
-执行结果：符合条件的交易总行数 = 1。因此，数值2 = 1。
-【校验规则执行】
-严格按照校验规则执行：比较数值1和数值2是否相等。
-数值1 (来自Comportamiento) = 1
-数值2 (来自明细统计) = 1
-比较结果：1 == 1，两者相等。
-【决策结果执行】
-严格按照决策结果执行：如果相等，输出一致（无异常）。
-结论：数据一致，无异常。
-【hit值判定】
-根据规则：两个数值相等 → 输出“一致” → hit=false（合规/未命中）。
-因此，hit=false。</t>
+- 执行结果：符合条件的交易总行数为 1 笔。因此，数值2（来自明细统计）为 1 笔。
+校验规则：比较数值1和数值2是否相等。
+- 比较结果：数值1 (1) 等于 数值2 (1)。
+决策结果：如果相等，输出一致（无异常）。
+- 最终结论：数据一致，无异常。
+hit值判定：根据规则，数据一致（合规）对应 hit=false。</t>
         </is>
       </c>
       <c r="F20" s="5" t="inlineStr">
         <is>
-          <t>审计完成。明细中仅有一笔交易的Abonos列有有效数值，与Comportamiento中记录的入账总笔数完全一致，校验通过。</t>
+          <t>数据清晰完整，统计结果与系统提供的参考值（'其中包含有效 Abonos (入账) 的交易数: 1'）一致，判定置信度高。</t>
         </is>
       </c>
     </row>
@@ -734,29 +729,30 @@
       </c>
       <c r="E21" s="5" t="inlineStr">
         <is>
-          <t>【执行步骤说明】
-严格按照规则MSTAR_BBVA_DTL_CNT_CARGOS的判断逻辑执行：
-(Step 1) 从'Comportamiento'表格中提取'Retiros / Cargos (-)'对应的总笔数。根据已提取数据，在'Comportamiento'部分明确记录为：Retiros / Cargos (-): 1  52,400.00。因此，数值1（来自Comportamiento的总笔数）为：1。
-(Step 2) 遍历'Detalle de Movimientos Realizados'部分的所有交易行。已提取数据中明细总笔数为2，已按原始顺序列出。
-(Step 3) [关键过滤] 仅统计'Cargos'列有有效数值（非空且不为0）的行。如果某行只有'Abono'列有值，必须忽略。逐行检查：
-   - 明细行1：描述为SPEI RECIBIDO...，Cargo列显示为“无”，Abono列有值52373.57。根据规则，此行只有Abono列有值，必须忽略，不计入Cargos笔数。
-   - 明细行2：描述为SPEI ENVIADO...，Cargo列显示为“52400.0”，为有效数值。此行符合条件。
-(Step 4) 计算符合条件的交易总行数。符合条件的行只有明细行2，因此数值2（来自明细的Cargos笔数）为：1。
-【校验规则执行】
-严格按照校验规则执行：比较数值1和数值2是否相等。
-- 数值1（来自Comportamiento的总笔数）: 1
-- 数值2（来自明细的Cargos笔数）: 1
-比较结果：1 == 1，两者相等。
-【决策结果执行】
-严格按照决策结果执行：如果相等，输出一致（无异常）。
-结论：数据一致，无异常。
-【hit值判定】
-根据规则：两个数值相等 → 输出“一致” → hit=false（合规/未命中）。</t>
+          <t>规则ID: MSTAR_BBVA_DTL_CNT_CARGOS
+规则名称: 明细交易笔数校验_出账笔数
+执行步骤（严格按照判断逻辑）：
+(Step 1) 从 'Comportamiento' 表格中提取 'Retiros / Cargos (-)' 对应的总笔数。数据中，'Comportamiento' 部分明确显示：'Retiros / Cargos (-): 1  52,400.00'。因此，数值1（来自Comportamiento的总笔数）为：1。
+(Step 2) 遍历 'Detalle de Movimientos Realizados' 部分的所有交易行。明细数据共列出2笔交易。
+(Step 3) [关键过滤] 仅统计 'Cargos' 列有有效数值（非空且不为0）的行。遍历明细：
+    交易1: CARGOS:无，ABONOS:52373.57 -&gt; Cargos列无有效数值，忽略。
+    交易2: CARGOS:52400.0，ABONOS:无 -&gt; Cargos列有有效数值（52400.0），符合条件。
+(Step 4) 计算符合条件的交易总行数。符合条件的交易只有交易2，共计1笔。因此，数值2（来自明细的统计笔数）为：1。
+校验规则（严格按照校验规则）：
+比较数值1（来自Comportamiento，为1）与数值2（来自明细统计，为1）是否相等。
+比较结果：
+数值1 = 1
+数值2 = 1
+两者相等。
+决策结果（严格按照决策结果）：
+因为两个数值相等，所以输出“一致”（无异常）。
+最终判定：
+根据规则，输出“一致”对应 hit=false（合规/未命中）。</t>
         </is>
       </c>
       <c r="F21" s="5" t="inlineStr">
         <is>
-          <t>规则执行完毕，数据匹配，未发现违规。</t>
+          <t>数据清晰完整，计算过程简单，结果明确一致。</t>
         </is>
       </c>
     </row>
@@ -783,34 +779,22 @@
       </c>
       <c r="E22" s="5" t="inlineStr">
         <is>
-          <t>【执行步骤说明】
-严格按照规则MSTAR_BBVA_DTL_AMT_ABONOS的判断逻辑执行：
-(Step 1) 从'Comportamiento'表格中提取'Depósitos / Abonos (+)'（入账）对应的总金额。
-执行结果：从提供的'Comportamiento'数据中，提取到'Depósitos / Abonos (+): 1  52,373.57'。数值1 = 52373.57。
-(Step 2) 遍历'Detalle de Movimientos Realizados'部分。
-执行结果：遍历提供的2条明细交易记录。
-(Step 3) [关键过滤] 累加所有'Abonos'列的数值。忽略'Cargo'列的数值。
-执行结果：
-- 第1笔交易：Abono: 52373.57，Cargo: 无。累加金额：52373.57。
-- 第2笔交易：Abono: 无，Cargo: 52400.0。根据规则忽略'Cargo'列，此笔交易对Abonos累加无贡献。
-累加所有'Abonos'列数值：52373.57。数值2 = 52373.57。
-(Step 4) 确保金额格式转换正确（处理千分位逗号）。
-执行结果：数值1（52,373.57）已正确转换为52373.57。数值2（52373.57）无需转换。
-【校验规则执行】
-严格按照校验规则执行：比较数值1和数值2是否相等。
-- 数值1 (来自Comportamiento): 52373.57
-- 数值2 (来自Detalle累加): 52373.57
-比较结果：数值1 (52373.57) 等于 数值2 (52373.57)。
-【决策结果执行】
-严格按照决策结果执行：如果相等，输出一致（无异常）。
-执行结果：两个数值相等，输出“一致”。
-【hit值判定】
-根据规则：输出“一致” → hit=false（合规/未命中）。</t>
+          <t>1. 执行判断逻辑：
+   - Step 1: 从 'Comportamiento' 表格中提取 'Depósitos / Abonos (+)' 对应的总金额。提取结果为：52,373.57。
+   - Step 2: 遍历 'Detalle de Movimientos Realizados' 部分。
+   - Step 3: 累加所有 'Abonos' 列的数值，忽略 'Cargo' 列的数值。明细如下：
+     交易1: Abonos = 52373.57
+     交易2: Abonos = 无 (0.00)
+   - Step 4: 确保金额格式转换正确。明细金额已处理为数字格式。
+   计算明细金额总和：52373.57 + 0.00 = 52373.57。
+2. 执行校验规则：比较 Step 1 的数值 (52,373.57) 与 Step 3 的数值 (52,373.57) 是否相等。
+3. 执行决策结果：两个数值完全相等，输出“一致”。
+4. 判定理由：根据规则，数值相等即为一致，对应 hit=false。</t>
         </is>
       </c>
       <c r="F22" s="5" t="inlineStr">
         <is>
-          <t>审计完成。入账金额总和与明细交易中Abonos列累加金额完全一致，无异常。</t>
+          <t>数据完整，计算过程清晰，结果明确。</t>
         </is>
       </c>
     </row>
@@ -837,24 +821,30 @@
       </c>
       <c r="E23" s="5" t="inlineStr">
         <is>
-          <t>严格按照审计规则 MSTAR_BBVA_DTL_AMT_CARGOS 的判断逻辑执行：
-(Step 1) 从 'Comportamiento' 表格中提取 'Retiros / Cargos (-)'（出账）对应的总金额。执行结果：提取到金额为 52,400.00。
-(Step 2) 遍历 'Detalle de Movimientos Realizados' 部分。执行结果：共遍历2笔交易。
-(Step 3) [关键过滤] 累加所有 'Cargos' 列的数值。忽略 'Abono' 列的数值。执行结果：
-   - 第1笔交易：Cargo为“无”，忽略。
-   - 第2笔交易：Cargo为“52400.0”，累加。
-   - 累加结果：52400.0。
-(Step 4) 确保金额格式转换正确（处理千分位逗号）。执行结果：Step 1提取的金额“52,400.00”去除千分位逗号后为52400.00。Step 3累加的金额“52400.0”转换为两位小数为52400.00。
-严格按照校验规则执行：比较1和2是否相等。
-- 数值1（来自Comportamiento的Retiros / Cargos (-)）：52400.00
-- 数值2（来自Detalle的Cargos列累加）：52400.00
-比较结果：两个数值相等。
-严格按照决策结果执行：如果相等，输出一致（无异常）。
-结论：明细交易出账金额与总账金额一致，无异常。
-hit值判定：根据规则，两个数值相等，输出“一致”，对应hit=false（合规/未命中）。</t>
-        </is>
-      </c>
-      <c r="F23" s="5" t="inlineStr"/>
+          <t>规则ID: MSTAR_BBVA_DTL_AMT_CARGOS
+规则名称: 明细交易金额校验_出账金额
+执行步骤与结果：
+1. (Step 1) 从 'Comportamiento' 表格中提取 'Retiros / Cargos (-)' 对应的总金额。提取结果：52,400.00。
+2. (Step 2) 遍历 'Detalle de Movimientos Realizados' 部分。总笔数为2笔。
+3. (Step 3) 累加所有 'Cargos' 列的数值，忽略 'Abono' 列的数值。明细如下：
+   - 交易1: CARGOS:无 (视为0.00)
+   - 交易2: CARGOS:52400.0
+   累加结果：0.00 + 52400.0 = 52400.00。
+4. (Step 4) 确保金额格式转换正确。已处理，数值为52400.00。
+校验规则执行：
+- 数值1 (来自Comportamiento): 52400.00
+- 数值2 (来自明细累加): 52400.00
+- 比较结果：两者相等。
+决策结果：根据规则，相等则输出“一致”。
+结论：明细交易出账金额与Comportamiento中报告的出账总金额一致，无异常。
+hit判定理由：根据规则，数据一致，故 hit=false。</t>
+        </is>
+      </c>
+      <c r="F23" s="5" t="inlineStr">
+        <is>
+          <t>交易笔数较少（2笔），已在evidence中列出所有Cargos交易明细。系统提供的'total_importe_cargos: 52400.00'与手动计算结果一致，验证通过。</t>
+        </is>
+      </c>
     </row>
     <row r="24" ht="20" customHeight="1">
       <c r="A24" s="5" t="inlineStr">
@@ -881,29 +871,35 @@
         <is>
           <t>规则ID: MSTAR_BBVA_DTL_AMT_SINGLE
 规则名称: 明细交易金额校验_单笔金额
-执行步骤说明：
-(Step 1) 保持交易列表的原始顺序。已按提供的顺序处理明细交易。
-(Step 2) 确定初始锚点(Balance_1)。遍历明细交易列表，第一行交易（索引1）的'Operacion'值为'无'，'Saldo'值为'无'。因此，根据规则，尝试取'Summary'的'Saldo Anterior'为Balance_1。从数据中获取到Saldo Anterior = 26.59。计算起点从第一行明细交易开始。
-(Step 3) 寻找下一个锚点(Balance_2)。向下遍历明细交易列表，在第二行交易（索引2）中，'Operacion'值为'0.16'。根据规则，将其记为Balance_2。
-(Step 4) 区间核算。区间为Balance_1（不含）到Balance_2（含），即明细交易第1行和第2行。
-   - 累加区间内的CARGOS：第1行Cargo为'无'，视为0；第2行Cargo为52400.0。Sum(Cargos) = 0 + 52400.0 = 52400.0。
-   - 累加区间内的ABONOS：第1行Abono为52373.57；第2行Abono为'无'，视为0。Sum(Abonos) = 52373.57 + 0 = 52373.57。
-   - 验证公式：result = Balance_1 - Sum(Cargos) + Sum(Abonos) - Balance_2。
-   - 代入数值：result = 26.59 - 52400.0 + 52373.57 - 0.16。
-   - 计算过程：26.59 - 52400.0 = -52373.41；-52373.41 + 52373.57 = 0.16；0.16 - 0.16 = 0.00。
-   - 本轮次result = 0.00。
-(Step 5) 迭代。将Balance_2 (0.16) 设为新的Balance_1，重复Step 3-4。继续向下遍历，已无更多明细交易行，也无更多'OPERACIÓN'或'SALDO OPERACIÓN'值。因此，核算结束。
-校验规则执行：
-记录每一个轮次中步骤4的result值。本次审计仅有一个轮次，result值为0.00。
-决策结果：
-由于所有轮次的result值都为0，根据规则，输出一致（无异常）。
-最终判定：
-明细交易金额校验通过，未发现不一致。因此，hit=false。</t>
+执行步骤与结果：
+1. 保持交易列表原始顺序：已按提供的明细顺序处理，共2笔交易。
+2. 确定初始锚点(Balance_1)：第一行交易无'OPERACIÓN'或'SALDO OPERACIÓN'值。根据逻辑，尝试取'Summary'的'Saldo Anterior'为Balance_1。数据中'Saldo Anterior'为26.59。因此，Balance_1 = 26.59，计算起点从第一行交易开始。
+3. 寻找下一个锚点(Balance_2)：向下遍历，在第二行交易中找到'OPERACIÓN'值为0.16，记为Balance_2 = 0.16。
+4. 区间核算：累加Balance_1（不含）到Balance_2（含）之间的所有CARGOS和ABONOS。
+   - 区间包含交易行1和行2。
+   - Sum(Cargos) = 52400.0 (来自行2)
+   - Sum(Abonos) = 52373.57 (来自行1)
+   - 计算result：result = Balance_1 - Sum(Cargos) + Sum(Abonos) - Balance_2 = 26.59 - 52400.0 + 52373.57 - 0.16 = 0.0
+5. 迭代：将Balance_2设为新的Balance_1，重复步骤3-4。由于已到达列表末尾，迭代结束。
+校验规则执行：记录每一个轮次中步骤4的result值。本次分析仅有一个轮次，result = 0.0。
+决策结果：由于所有轮次的result值均为0，根据规则，输出一致（无异常）。
+关键交易明细（按原始顺序）：
+1. ABONOS: 52373.57
+2. CARGOS: 52400.0, OPERACIÓN: 0.16
+计算过程：
+初始余额(Saldo Anterior/Balance_1): 26.59
+减项总和(Sum(Cargos)): 52400.0
+加项总和(Sum(Abonos)): 52373.57
+预期余额: 26.59 - 52400.0 + 52373.57 = 0.16
+实际锚点余额(Balance_2): 0.16
+差值(result): 0.16 - 0.16 = 0.0
+比较结论：所有区间的余额连续性校验通过，result值均为0。
+hit判定理由：根据决策结果，所有轮次result值均为0，表示一致（无异常），因此hit=false。</t>
         </is>
       </c>
       <c r="F24" s="5" t="inlineStr">
         <is>
-          <t>审计过程严格遵循了规则中定义的判断逻辑、校验规则和决策结果。计算基于提供的明细数据和摘要信息，结果一致。</t>
+          <t>系统提供的内部Python计算结果（Round 1 Diff=0.00 -&gt; PASS）与本分析结果一致，进一步验证了结论的准确性。</t>
         </is>
       </c>
     </row>
@@ -930,29 +926,20 @@
       </c>
       <c r="E25" s="5" t="inlineStr">
         <is>
-          <t>【步骤执行过程】
-(Step 1) 获取步骤1中“content”的值中模糊匹配包含“Periodo”的信息。
-执行结果：在提供的数据中，找到“Periodo: DEL 01/09/2025 AL 30/09/2025”。因此，步骤1的日期区间为 [DEL 01/09/2025, AL 30/09/2025]。
-(Step 2) 取Detalle de Movimientos Realizados中所有的OPER和LIQ，并计算出其中最小日期和最大日期。
-执行结果：
-- 交易明细共2笔，其OPER和LIQ日期均为“30/SEP”。
-- 将“30/SEP”与步骤1的日期格式“DD/MM/YYYY”对齐，可推断为“30/09/2025”。
-- 因此，min_date = 30/09/2025，max_date = 30/09/2025。
-【校验规则执行】
-校验规则：判断步骤2中的min_date和max_date是否在步骤1的日期区间范围内。
-执行结果：
-- 步骤1的日期区间为：开始日期 01/09/2025，结束日期 30/09/2025。
-- 步骤2的min_date (30/09/2025) 和 max_date (30/09/2025) 均在区间 [01/09/2025, 30/09/2025] 内。
-【决策结果】
-根据规则，如果min_date和max_date在步骤1的日期区间范围内，输出“一致（无异常）”。
-结论：日期一致，无异常。
-【hit值判定】
-根据决策结果“一致（无异常）”，对应 hit=false。</t>
+          <t>【步骤1执行结果】从数据中提取到Periodo信息：'DEL 01/09/2025 AL 30/09/2025'。解析得到日期区间为：[01/09/2025, 30/09/2025]。
+【步骤2执行结果】从'Detalle de Movimientos Realizados'中提取所有交易的OPER和LIQ日期。明细如下：
+1. OPER: 30/SEP, LIQ: 30/SEP
+2. OPER: 30/SEP, LIQ: 30/SEP
+所有日期均为'30/SEP'，即2025年9月30日。因此，计算得到最小日期(min_date)为30/09/2025，最大日期(max_date)也为30/09/2025。
+【校验规则执行】判断步骤2中的min_date(30/09/2025)和max_date(30/09/2025)是否在步骤1的日期区间[01/09/2025, 30/09/2025]范围内。
+30/09/2025 &gt;= 01/09/2025 且 30/09/2025 &lt;= 30/09/2025，条件成立。
+【决策结果】步骤2中的min_date和max_date均在步骤1的日期区间范围内，因此输出“一致（无异常）”。
+【hit判定】根据决策结果，规则未命中，故hit=false。</t>
         </is>
       </c>
       <c r="F25" s="5" t="inlineStr">
         <is>
-          <t>所有交易日期均位于账单周期内，符合日期一致性校验规则。</t>
+          <t>所有交易日期均落在Periodo定义的区间内，日期一致性校验通过。</t>
         </is>
       </c>
     </row>
@@ -979,24 +966,22 @@
       </c>
       <c r="E26" s="5" t="inlineStr">
         <is>
-          <t>步骤1执行结果：已取出Detalle de Movimientos Realizados中所有DESCRIPCION（描述）字段的值。
-值1：SPEI RECIBIDOSANTANDER 0174456016 014 0123456MXN 00014730655034482664 20250930400140BET0000483396700 SUKARNE AGROINDUSTRIAL SA DE CV
-值2：SPEI ENVIADO BANCOPPEL 0074471825 137 0109250pago 00004169160890890610 MBAN01002509300074471825 JAZMIN GUADALUPE S
-步骤2执行结果：将上述DESCRIPCION值翻译成中文。
-翻译1：SPEI接收自桑坦德银行 0174456016 014 0123456MXN 00014730655034482664 20250930400140BET0000483396700 SUKARNE AGROINDUSTRIAL SA DE CV（公司名）
-翻译2：SPEI发送至BANCOPPEL 0074471825 137 0109250pago 00004169160890890610 MBAN01002509300074471825 JAZMIN GUADALUPE S（人名）
-校验规则执行：检查翻译后的中文描述是否命中任意关键词。
-关键词列表：现金密集型业务；小型零售商和街头摊贩（如露天市场摊贩）；夜总会；酒吧；娱乐场所经营者；灰色；非法行业关联者；未注册或非正式的安保服务提供商；涉嫌贷款翻转或文件造假的汽车贷款经纪人或中介；可能与贩毒或有组织犯罪相关的幌子企业（如虚假奢侈品转售店、空壳运输公司）；欺诈高发行业；不受监管的汽车经销商或中介，尤其是推广 “零首付” 优惠的或收入不规律或无法核实的自雇人士；在汽车金融行业工作的个人；独立或未注册的汽车维修店员工。
-比较结果：
-- 翻译1描述为来自一家名为SUKARNE AGROINDUSTRIAL SA DE CV的公司的SPEI收款，未命中任何关键词。
-- 翻译2描述为向名为JAZMIN GUADALUPE S的个人进行SPEI付款，未命中任何关键词。
-决策结果：所有DESCRIPCION值的中文翻译均未命中关键词列表中的任意一个。
-结论：根据决策规则，全部未命中，输出正常。因此，hit=false。</t>
+          <t>1. 执行判断逻辑步骤1：从提供的'Detalle de Movimientos Realizados'中取出所有'DESCRIPCION'（描述）字段的值。
+   - 交易1描述：SPEI RECIBIDOSANTANDER 0174456016 014 0123456MXN 00014730655034482664 20250930400140BET0000483396700 SUKARNE AGROINDUSTRIAL SA DE CV
+   - 交易2描述：SPEI ENVIADO BANCOPPEL 0074471825 137 0109250pago 00004169160890890610 MBAN01002509300074471825 JAZMIN GUADALUPE S
+2. 执行判断逻辑步骤2：将上述描述翻译成中文。
+   - 交易1描述翻译：SPEI 接收自 SANTANDER 银行 账户0174456016 分行014 参考号0123456MXN 00014730655034482664 20250930400140BET0000483396700 公司名 SUKARNE AGROINDUSTRIAL SA DE CV
+   - 交易2描述翻译：SPEI 发送至 BANCOPPEL 银行 账户0074471825 分行137 备注pago 参考号00004169160890890610 MBAN01002509300074471825 收款人 JAZMIN GUADALUPE S
+3. 执行校验规则：检查翻译后的中文描述是否命中任意一个关键词。
+   - 关键词列表：现金密集型业务；小型零售商和街头摊贩（如露天市场摊贩）；夜总会；酒吧；娱乐场所经营者；灰色；非法行业关联者；未注册或非正式的安保服务提供商；涉嫌贷款翻转或文件造假的汽车贷款经纪人或中介；可能与贩毒或有组织犯罪相关的幌子企业（如虚假奢侈品转售店、空壳运输公司）；欺诈高发行业；不受监管的汽车经销商或中介，尤其是推广 “零首付” 优惠的或收入不规律或无法核实的自雇人士；在汽车金融行业工作的个人；独立或未注册的汽车维修店员工。
+   - 检查结果：交易1描述涉及公司'SUKARNE AGROINDUSTRIAL SA DE CV'，是一家农业工业公司，与上述任何高风险职业关键词无关。交易2描述涉及个人'JAZMIN GUADALUPE S'的普通转账，与上述任何高风险职业关键词无关。所有描述均未命中关键词。
+4. 执行决策结果：由于所有描述均未命中任意一个关键词，因此输出'正常'。
+5. 最终判定：根据决策结果'正常'，规则未命中，因此 hit=false。</t>
         </is>
       </c>
       <c r="F26" s="5" t="inlineStr">
         <is>
-          <t>审计规则MSTAR_BBVA_DTL_ANAL_RISK_OCC（交易明细分析_高风险职业）的检查已完成。交易描述内容为正常的银行间转账（SPEI），涉及的公司和个人名称未显示出与高风险职业相关的特征。</t>
+          <t>审计规则要求检查交易描述是否涉及高风险职业。经逐条翻译并核对关键词列表，未发现匹配项。所有交易均为普通的银行间电子转账（SPEI），不涉及规则定义的风险职业。</t>
         </is>
       </c>
     </row>
@@ -1025,52 +1010,37 @@
         <is>
           <t>规则ID: MSTAR_BBVA_DTL_ANAL_FAST_IO
 规则名称: 交易明细分析_快进快出
-执行过程：
-步骤1：取Detalle de Movimientos Realizados中所有记录并按照OPER日期升序排序。
-- 明细数据共2条，OPER日期均为30/SEP，已按原始顺序列出。
-步骤2：统计所有记录中ABONOS取值不为空的总记录数为total_cargo_cnt。
-- 检查明细：
-  记录1: ABONOS = 52373.57 (不为空)
-  记录2: ABONOS = 无 (为空)
-- 因此，ABONOS不为空的总记录数 total_cargo_cnt = 1。
-步骤3：以Detalle de Movimientos Realizados中第一条记录开始往下逐一查找ABONOS值不为空的行，将该条记录所在的行作为起始行，获取该条记录的ABONOS值记为ABONOS1，获取该记录的OPER日期记为OPER1。
-- 起始行：第1条记录。
-- ABONOS1 = 52373.57
-- OPER1 = 30/SEP
-步骤4：以步骤3中的起始行开始往下逐行查找，获取离起始行最近的且CARGOS列的值和ABONOS1相同的记录，获取该记录的OPER日期记为OPER2。
-- 从第1条记录（起始行）开始往下查找。
-- 第2条记录的CARGOS值为52400.0。
-- 条件：CARGOS列的值需等于ABONOS1 (52373.57)。
-- 检查：52400.0 ≠ 52373.57，因此不匹配。
-- 继续查找：起始行之后没有更多记录了。
-- 结果：未找到CARGOS值与ABONOS1 (52373.57) 相同的记录。
-- 因此，无法获取OPER2。
-步骤5：比较OPER2日期和OPER1日期的间隔天数，结果记为result。
-- 由于步骤4未找到匹配记录，无法计算间隔天数。
-- 根据规则逻辑，此轮次无法产生有效的result值。
-步骤6：以步骤3中的起始行的下一条记录所在的行作为起始行，重复步骤3-步骤6，直到取完所有记录。
-- 当前起始行是第1条记录，其下一条记录是第2条记录。
-- 步骤3：检查第2条记录的ABONOS值。第2条记录的ABONOS值为“无”（为空）。根据规则，需要查找ABONOS值不为空的行作为起始行。因此，第2条记录不符合起始行条件。
-- 所有记录已检查完毕，没有更多ABONOS不为空的记录可以作为新的起始行。
-校验规则执行：
-1. 记录每一个轮次中步骤5中的result值，如果result小于等于1，则最终结果result_total计数加1。
-   - 在本案例中，仅有一个有效的起始行（第1条记录），但在步骤4中未找到匹配的CARGOS记录，因此没有产生有效的result值。
-   - result_total = 0 (因为没有result值可以判断是否≤1)。
-2. 用result_total / cnt，结果值记为ratio。
-   - cnt 应为 total_cargo_cnt，即ABONOS不为空的记录总数，根据步骤2，cnt = 1。
-   - ratio = result_total / cnt = 0 / 1 = 0。
-决策结果执行：
-- 规则要求：如果ratio &gt; 0.8，输出“命中快进快出（异常）”；如果ratio &lt;= 0.8，输出“未命中快进快出（无异常）”。
-- 计算得出 ratio = 0。
-- 因为 0 &lt;= 0.8，所以决策结果为“未命中快进快出（无异常）”。
-结论：
-- 根据规则逻辑执行，未发现符合“快进快出”特征的交易对（即存入后1天内等额或近似等额转出）。
-- 最终结果：未命中快进快出（无异常）。</t>
+**执行步骤与结果**：
+1. 步骤1：取Detalle de Movimientos Realizados中所有记录并按OPER日期升序排序。
+   - 明细共2笔，已按原始顺序（即OPER日期顺序）列出。
+2. 步骤2：统计所有记录中ABONOS取值不为空的总记录数为total_cargo_cnt。
+   - 明细中ABONOS不为空的记录为第1笔：ABONOS=52373.57。
+   - 因此，total_cargo_cnt = 1。
+3. 步骤3：从第一条记录开始查找ABONOS不为空的行作为起始行。
+   - 起始行：第1笔记录。
+   - ABONOS1 = 52373.57
+   - OPER1 = 30/SEP
+4. 步骤4：从起始行开始往下逐行查找，获取离起始行最近的且CARGOS列的值和ABONOS1相同的记录。
+   - 查找条件：CARGOS == 52373.57。
+   - 从第1笔之后（即第2笔）开始查找，第2笔记录的CARGOS = 52400.0，与ABONOS1 (52373.57) 不相等。
+   - 后续无更多记录。
+   - **结论**：未找到CARGOS值与ABONOS1 (52373.57) 相同的记录。因此，无法获取OPER2，步骤5无法执行。
+5. 步骤5：由于未找到匹配的CARGOS记录，无法计算OPER2与OPER1的间隔天数（result）。
+6. 步骤6：尝试以下一条记录为起始行重复步骤3-6。
+   - 下一条记录（第2笔）的ABONOS为空，不符合步骤3的起始条件（ABONOS不为空）。
+   - 所有记录已处理完毕。
+**校验规则应用**：
+1. 由于在整个查找过程中，未能成功完成任何一轮“找到匹配CARGOS并计算间隔天数”的完整流程，因此result_total（间隔天数&lt;=1的轮次数）为0。
+2. ratio = result_total / total_cargo_cnt = 0 / 1 = 0。
+**决策结果**：
+根据规则，ratio &gt; 0.8 则命中异常。当前 ratio = 0 &lt;= 0.8，因此输出“未命中快进快出（无异常）”。
+**最终判定**：
+规则未命中，hit=false。</t>
         </is>
       </c>
       <c r="F27" s="5" t="inlineStr">
         <is>
-          <t>分析基于提供的2条交易明细。规则的核心是寻找“存入(ABONOS)后，在1天内发生等额或近似等额转出(CARGOS)”的模式。在本案例中，虽然有一笔存入(52,373.57)和一笔相近金额的转出(52,400.0)，但转出金额(52,400.0)与存入金额(52,373.57)并不相等，因此按照严格的“CARGOS列的值和ABONOS1相同”的条件，未能匹配成功。规则执行过程完整，数据充足，判断明确。</t>
+          <t>分析基于提供的2笔交易明细。核心发现：仅有一笔入账（Abonos），但后续没有一笔出账（Cargos）的金额与之完全相等，因此无法构成“快进快出”的配对，无法计算时间间隔。根据规则逻辑，未形成任何有效配对轮次，比例为零，故判定为无异常。</t>
         </is>
       </c>
     </row>
@@ -1097,24 +1067,19 @@
       </c>
       <c r="E28" s="5" t="inlineStr">
         <is>
-          <t>步骤1：获取解析后Detalle de Movimientos Realizados部分的description对应的所有的值。
-执行结果：共获取到2条描述（DESCRIPCION）值。
-明细如下（按原始顺序列出）：
-1. SPEI RECIBIDOSANTANDER 0174456016 014 0123456MXN 00014730655034482664 20250930400140BET0000483396700 SUKARNE AGROINDUSTRIAL SA DE CV
-2. SPEI ENVIADO BANCOPPEL 0074471825 137 0109250pago 00004169160890890610 MBAN01002509300074471825 JAZMIN GUADALUPE S
-校验规则：判断DESCRIPCION对应的所有的值是否包含以下任意关键词：Apuesta，médico / médic，juego。
-执行结果：
-- 对第1条描述进行关键词检查：未发现关键词“Apuesta”、“médico / médic”、“juego”。
-- 对第2条描述进行关键词检查：未发现关键词“Apuesta”、“médico / médic”、“juego”。
-决策结果：命中任意一个，输出异常；全部都没命中，输出正常。
-执行结果：所有描述均未命中任意关键词，因此输出“正常”。
-结论：根据审计规则MSTAR_BBVA_DTL_ANAL_ABN_REM，交易明细的备注描述中未发现异常关键词。
-判定理由：hit=false 表示规则未命中（合规/一致）。</t>
+          <t>1. 执行判断逻辑步骤1：获取解析后Detalle de Movimientos Realizados部分的description对应的所有值。
+   - 交易1描述：SPEI RECIBIDOSANTANDER 0174456016 014 0123456MXN 00014730655034482664 20250930400140BET0000483396700 SUKARNE AGROINDUSTRIAL SA DE CV
+   - 交易2描述：SPEI ENVIADO BANCOPPEL 0074471825 137 0109250pago 00004169160890890610 MBAN01002509300074471825 JAZMIN GUADALUPE S
+2. 执行校验规则：判断所有描述值是否包含以下任意关键词：Apuesta，médico / médic，juego。
+   - 检查交易1描述：不包含关键词“Apuesta”、“médico / médic”、“juego”。
+   - 检查交易2描述：不包含关键词“Apuesta”、“médico / médic”、“juego”。
+3. 执行决策结果：所有描述均未命中任意一个关键词，输出正常。
+4. 结论：根据规则，未发现异常备注。</t>
         </is>
       </c>
       <c r="F28" s="5" t="inlineStr">
         <is>
-          <t>审计规则仅检查描述字段是否包含特定关键词，不涉及金额或笔数校验。本次检查未发现违规。</t>
+          <t>所有交易描述均不包含规则指定的关键词（Apuesta，médico / médic，juego）。</t>
         </is>
       </c>
     </row>
@@ -1143,23 +1108,22 @@
         <is>
           <t>规则ID: MSTAR_BBVA_TIME_CHK_SPECIAL
 规则名称: 交易时间校验_特殊时间段交易
-执行步骤说明：
-步骤1：依次获取解析后Detalle de Movimientos Realizados部分的每一条记录的description，并尝试提取时间。
-- 记录1描述：'SPEI RECIBIDOSANTANDER 0174456016 014 0123456MXN 00014730655034482664 20250930400140BET0000483396700 SUKARNE AGROINDUSTRIAL SA DE CV'，未包含时间信息，跳过。
-- 记录2描述：'SPEI ENVIADO BANCOPPEL 0074471825 137 0109250pago 00004169160890890610 MBAN01002509300074471825 JAZMIN GUADALUPE S'，未包含时间信息，跳过。
-步骤1执行完毕，未从任何记录中提取到时间。
-步骤2：将获取到的所有时间放入集合。由于步骤1未提取到任何时间，时间集合为空。
-步骤3：统计时间集合中处于2点至5点（包括2点和5点）的交易笔数。由于集合为空，统计结果 count = 0。
-校验规则：判断 count 是否大于10。
+执行步骤：
+1. 按照判断逻辑步骤1，遍历‘Detalle de Movimientos Realizados’中的所有记录，提取description字段中的时间。
+   - 记录1描述: ‘SPEI RECIBIDOSANTANDER 0174456016 014 0123456MXN 00014730655034482664 20250930400140BET0000483396700 SUKARNE AGROINDUSTRIAL SA DE CV’ -&gt; 未包含时间信息。
+   - 记录2描述: ‘SPEI ENVIADO BANCOPPEL 0074471825 137 0109250pago 00004169160890890610 MBAN01002509300074471825 JAZMIN GUADALUPE S’ -&gt; 未包含时间信息。
+2. 按照判断逻辑步骤2，将所有提取到的时间放入集合。由于两条记录的描述中均未包含时间信息，因此获取到的时间集合为空。
+3. 按照判断逻辑步骤3，统计集合中处于02:00至05:00（含两端点）的时间数量。由于集合为空，统计结果 count = 0。
+校验规则：判断 count 是否大于 10。
 比较结果：count = 0，不大于10。
-决策结果：根据规则，count &lt;= 10，输出“正常”。
-结论：交易时间校验结果正常，未发现违规。
-hit值判定：决策结果为“正常”，因此 hit = false。</t>
+决策结果：根据规则，count &lt;= 10 输出‘正常’。
+结论：未发现交易时间异常。
+判定理由：严格按照判断逻辑执行，从提供的交易明细中未提取到任何时间信息，因此统计的特殊时间段交易笔数为0，符合规则中‘count&lt;=10’的条件，故判定为正常（未命中规则）。</t>
         </is>
       </c>
       <c r="F29" s="5" t="inlineStr">
         <is>
-          <t>所有交易描述中均未包含时间信息，因此无法提取到任何交易时间进行统计。根据规则逻辑，统计笔数为0，未超过阈值。</t>
+          <t>提供的交易明细描述字段中不包含时间信息，因此无法提取时间进行具体分析。根据规则逻辑，这种情况视为无特殊时间段交易，直接通过校验。</t>
         </is>
       </c>
     </row>
